--- a/src/data/journal_list_author_tool.xlsx
+++ b/src/data/journal_list_author_tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c839d2970fc5d08/Open Access/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1328EAC9-F3BA-4B3D-A766-6F80DCD19EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{1328EAC9-F3BA-4B3D-A766-6F80DCD19EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF97C819-8E43-D047-A8AA-4D97E74F8488}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{67449CF9-DB1C-4B4F-98C0-4EBCE6DE731C}"/>
   </bookViews>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4309" uniqueCount="2635">
   <si>
     <t>Publisher</t>
   </si>
@@ -7912,13 +7921,31 @@
   </si>
   <si>
     <t>1939-0041</t>
+  </si>
+  <si>
+    <t>SciPost</t>
+  </si>
+  <si>
+    <t>SciPost Physics</t>
+  </si>
+  <si>
+    <t>2552-4563</t>
+  </si>
+  <si>
+    <t>2666-9366</t>
+  </si>
+  <si>
+    <t>2590-1990</t>
+  </si>
+  <si>
+    <t>2666-4003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7969,6 +7996,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFED7D31"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7978,7 +8012,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -8001,12 +8035,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2DF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2DF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2DF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2DF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8028,6 +8077,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8344,21 +8396,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DF247D-5B3D-334B-90BD-AE1DB8E2833F}">
-  <dimension ref="A1:I804"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0" xr3:uid="{3AD40B80-07A2-5BF2-AEBF-95A28DD7EEF4}">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A787" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I809" sqref="I809"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="20.46875" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.671875" customWidth="1"/>
+    <col min="4" max="4" width="12.57421875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8387,7 +8439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -8416,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -8442,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -8468,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8497,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8526,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8555,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8584,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8610,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8639,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8665,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -8691,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -8717,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -8743,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -8766,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -8792,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -8818,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -8844,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -8873,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -8902,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -8928,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -8957,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -8980,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -9009,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -9035,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -9064,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -9090,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -9119,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -9148,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -9174,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -9203,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -9229,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -9258,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -9284,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -9310,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -9336,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -9362,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -9388,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -9414,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -9443,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -9469,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -9495,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -9521,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9550,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -9579,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -9608,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -9631,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -9660,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -9686,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -9709,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9735,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -9761,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -9784,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -9810,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -9836,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -9862,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -9888,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -9914,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -9940,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -9966,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9995,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -10018,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -10044,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -10073,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -10102,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -10131,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -10157,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -10183,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -10209,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -10235,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -10261,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -10287,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -10313,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -10339,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>49</v>
       </c>
@@ -10368,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -10394,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -10420,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -10446,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -10475,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -10504,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -10530,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -10556,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -10582,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -10608,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -10634,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -10660,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -10686,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -10715,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -10741,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -10767,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -10793,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -10819,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -10845,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -10868,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -10897,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -10923,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -10949,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -10975,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -11001,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -11027,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -11053,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>49</v>
       </c>
@@ -11079,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>49</v>
       </c>
@@ -11105,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -11131,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>49</v>
       </c>
@@ -11157,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -11183,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>49</v>
       </c>
@@ -11209,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>49</v>
       </c>
@@ -11235,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -11264,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>49</v>
       </c>
@@ -11290,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -11313,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>49</v>
       </c>
@@ -11339,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>49</v>
       </c>
@@ -11365,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>49</v>
       </c>
@@ -11391,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -11417,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>49</v>
       </c>
@@ -11443,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>49</v>
       </c>
@@ -11469,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>49</v>
       </c>
@@ -11495,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>49</v>
       </c>
@@ -11521,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>49</v>
       </c>
@@ -11547,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -11573,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>49</v>
       </c>
@@ -11599,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>49</v>
       </c>
@@ -11625,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>49</v>
       </c>
@@ -11651,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>49</v>
       </c>
@@ -11680,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -11703,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>49</v>
       </c>
@@ -11729,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>49</v>
       </c>
@@ -11755,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>49</v>
       </c>
@@ -11781,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>49</v>
       </c>
@@ -11807,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>49</v>
       </c>
@@ -11833,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>49</v>
       </c>
@@ -11859,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>49</v>
       </c>
@@ -11885,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>49</v>
       </c>
@@ -11911,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>49</v>
       </c>
@@ -11934,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>49</v>
       </c>
@@ -11960,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>49</v>
       </c>
@@ -11986,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -12012,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -12038,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>49</v>
       </c>
@@ -12064,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>49</v>
       </c>
@@ -12093,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -12119,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>49</v>
       </c>
@@ -12148,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>49</v>
       </c>
@@ -12174,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>49</v>
       </c>
@@ -12200,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -12226,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -12252,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>49</v>
       </c>
@@ -12278,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>49</v>
       </c>
@@ -12304,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>49</v>
       </c>
@@ -12330,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>49</v>
       </c>
@@ -12356,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>49</v>
       </c>
@@ -12382,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>49</v>
       </c>
@@ -12408,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>49</v>
       </c>
@@ -12434,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -12460,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -12486,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>49</v>
       </c>
@@ -12509,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -12532,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>49</v>
       </c>
@@ -12558,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>49</v>
       </c>
@@ -12584,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>49</v>
       </c>
@@ -12613,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>49</v>
       </c>
@@ -12636,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>49</v>
       </c>
@@ -12665,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>49</v>
       </c>
@@ -12694,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>49</v>
       </c>
@@ -12720,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>49</v>
       </c>
@@ -12746,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -12772,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>49</v>
       </c>
@@ -12798,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>49</v>
       </c>
@@ -12824,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -12853,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>49</v>
       </c>
@@ -12882,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>49</v>
       </c>
@@ -12908,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>49</v>
       </c>
@@ -12934,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>49</v>
       </c>
@@ -12957,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>49</v>
       </c>
@@ -12983,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>49</v>
       </c>
@@ -13009,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>49</v>
       </c>
@@ -13038,7 +13090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>49</v>
       </c>
@@ -13064,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -13087,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -13113,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>49</v>
       </c>
@@ -13139,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -13168,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -13194,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -13223,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -13249,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -13278,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -13304,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -13330,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -13356,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -13382,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>49</v>
       </c>
@@ -13408,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -13434,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>49</v>
       </c>
@@ -13457,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -13483,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -13512,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>49</v>
       </c>
@@ -13538,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -13564,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -13590,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -13616,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -13645,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -13671,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -13700,7 +13752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -13726,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>49</v>
       </c>
@@ -13752,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>49</v>
       </c>
@@ -13781,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -13810,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>49</v>
       </c>
@@ -13833,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -13856,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>49</v>
       </c>
@@ -13882,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -13911,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>49</v>
       </c>
@@ -13937,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>49</v>
       </c>
@@ -13963,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>49</v>
       </c>
@@ -13989,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>49</v>
       </c>
@@ -14015,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>49</v>
       </c>
@@ -14041,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>49</v>
       </c>
@@ -14070,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>49</v>
       </c>
@@ -14096,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>49</v>
       </c>
@@ -14122,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>49</v>
       </c>
@@ -14148,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>49</v>
       </c>
@@ -14174,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>49</v>
       </c>
@@ -14203,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>49</v>
       </c>
@@ -14229,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>49</v>
       </c>
@@ -14255,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>49</v>
       </c>
@@ -14281,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>49</v>
       </c>
@@ -14307,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>49</v>
       </c>
@@ -14336,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>49</v>
       </c>
@@ -14365,7 +14417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>49</v>
       </c>
@@ -14391,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>49</v>
       </c>
@@ -14417,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>49</v>
       </c>
@@ -14443,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>49</v>
       </c>
@@ -14469,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -14495,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>49</v>
       </c>
@@ -14518,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -14547,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>49</v>
       </c>
@@ -14570,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -14596,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>49</v>
       </c>
@@ -14625,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -14651,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>49</v>
       </c>
@@ -14677,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>49</v>
       </c>
@@ -14703,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>49</v>
       </c>
@@ -14726,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>49</v>
       </c>
@@ -14752,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>49</v>
       </c>
@@ -14778,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -14804,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>49</v>
       </c>
@@ -14830,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>49</v>
       </c>
@@ -14856,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>49</v>
       </c>
@@ -14882,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>49</v>
       </c>
@@ -14908,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>49</v>
       </c>
@@ -14934,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>49</v>
       </c>
@@ -14960,7 +15012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>49</v>
       </c>
@@ -14986,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>49</v>
       </c>
@@ -15012,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>49</v>
       </c>
@@ -15035,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>49</v>
       </c>
@@ -15061,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>49</v>
       </c>
@@ -15087,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>49</v>
       </c>
@@ -15110,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>49</v>
       </c>
@@ -15136,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>49</v>
       </c>
@@ -15162,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>49</v>
       </c>
@@ -15188,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>49</v>
       </c>
@@ -15214,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>49</v>
       </c>
@@ -15240,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>49</v>
       </c>
@@ -15266,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>49</v>
       </c>
@@ -15292,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>49</v>
       </c>
@@ -15318,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>49</v>
       </c>
@@ -15341,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -15370,7 +15422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>49</v>
       </c>
@@ -15396,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>49</v>
       </c>
@@ -15422,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>49</v>
       </c>
@@ -15448,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>49</v>
       </c>
@@ -15474,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>49</v>
       </c>
@@ -15500,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>49</v>
       </c>
@@ -15529,7 +15581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -15555,7 +15607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>49</v>
       </c>
@@ -15581,7 +15633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>49</v>
       </c>
@@ -15607,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>49</v>
       </c>
@@ -15633,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>49</v>
       </c>
@@ -15659,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>49</v>
       </c>
@@ -15685,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>49</v>
       </c>
@@ -15711,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>49</v>
       </c>
@@ -15740,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>49</v>
       </c>
@@ -15766,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>49</v>
       </c>
@@ -15792,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>49</v>
       </c>
@@ -15818,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>49</v>
       </c>
@@ -15844,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>49</v>
       </c>
@@ -15870,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>49</v>
       </c>
@@ -15896,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>49</v>
       </c>
@@ -15922,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>49</v>
       </c>
@@ -15948,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>49</v>
       </c>
@@ -15977,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>49</v>
       </c>
@@ -16003,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>49</v>
       </c>
@@ -16029,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>49</v>
       </c>
@@ -16058,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>49</v>
       </c>
@@ -16084,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>49</v>
       </c>
@@ -16110,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>49</v>
       </c>
@@ -16139,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>49</v>
       </c>
@@ -16168,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>49</v>
       </c>
@@ -16194,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -16220,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>49</v>
       </c>
@@ -16246,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>49</v>
       </c>
@@ -16272,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>49</v>
       </c>
@@ -16298,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>49</v>
       </c>
@@ -16324,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>49</v>
       </c>
@@ -16350,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>49</v>
       </c>
@@ -16376,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>49</v>
       </c>
@@ -16402,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>49</v>
       </c>
@@ -16428,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>49</v>
       </c>
@@ -16454,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>49</v>
       </c>
@@ -16480,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>49</v>
       </c>
@@ -16506,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>49</v>
       </c>
@@ -16532,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>49</v>
       </c>
@@ -16558,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>49</v>
       </c>
@@ -16587,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>49</v>
       </c>
@@ -16613,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>49</v>
       </c>
@@ -16639,7 +16691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>49</v>
       </c>
@@ -16665,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>49</v>
       </c>
@@ -16691,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>49</v>
       </c>
@@ -16714,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>49</v>
       </c>
@@ -16737,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>49</v>
       </c>
@@ -16763,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>49</v>
       </c>
@@ -16786,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>49</v>
       </c>
@@ -16809,7 +16861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>49</v>
       </c>
@@ -16835,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>49</v>
       </c>
@@ -16858,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>49</v>
       </c>
@@ -16884,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>49</v>
       </c>
@@ -16910,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>49</v>
       </c>
@@ -16936,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>49</v>
       </c>
@@ -16962,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>49</v>
       </c>
@@ -16985,7 +17037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>49</v>
       </c>
@@ -17011,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -17037,7 +17089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>49</v>
       </c>
@@ -17063,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>49</v>
       </c>
@@ -17089,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>49</v>
       </c>
@@ -17118,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>49</v>
       </c>
@@ -17144,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>49</v>
       </c>
@@ -17170,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>49</v>
       </c>
@@ -17193,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>49</v>
       </c>
@@ -17219,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>49</v>
       </c>
@@ -17245,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>49</v>
       </c>
@@ -17271,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>49</v>
       </c>
@@ -17300,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1062</v>
       </c>
@@ -17323,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1062</v>
       </c>
@@ -17346,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1062</v>
       </c>
@@ -17369,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1062</v>
       </c>
@@ -17392,7 +17444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1062</v>
       </c>
@@ -17415,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1062</v>
       </c>
@@ -17438,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1062</v>
       </c>
@@ -17461,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1062</v>
       </c>
@@ -17484,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1062</v>
       </c>
@@ -17507,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1062</v>
       </c>
@@ -17530,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1062</v>
       </c>
@@ -17553,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1085</v>
       </c>
@@ -17579,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1089</v>
       </c>
@@ -17608,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1089</v>
       </c>
@@ -17637,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1089</v>
       </c>
@@ -17666,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1089</v>
       </c>
@@ -17692,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1089</v>
       </c>
@@ -17721,7 +17773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1089</v>
       </c>
@@ -17750,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1089</v>
       </c>
@@ -17779,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1089</v>
       </c>
@@ -17808,7 +17860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1089</v>
       </c>
@@ -17837,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1089</v>
       </c>
@@ -17866,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1089</v>
       </c>
@@ -17895,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1089</v>
       </c>
@@ -17924,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1089</v>
       </c>
@@ -17953,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1089</v>
       </c>
@@ -17982,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1089</v>
       </c>
@@ -18011,7 +18063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1089</v>
       </c>
@@ -18040,7 +18092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1089</v>
       </c>
@@ -18069,7 +18121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1089</v>
       </c>
@@ -18098,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1089</v>
       </c>
@@ -18127,7 +18179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1089</v>
       </c>
@@ -18156,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1089</v>
       </c>
@@ -18185,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1089</v>
       </c>
@@ -18214,7 +18266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1089</v>
       </c>
@@ -18243,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1089</v>
       </c>
@@ -18272,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1089</v>
       </c>
@@ -18301,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1089</v>
       </c>
@@ -18330,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1089</v>
       </c>
@@ -18359,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1089</v>
       </c>
@@ -18388,7 +18440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1089</v>
       </c>
@@ -18417,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1089</v>
       </c>
@@ -18446,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1089</v>
       </c>
@@ -18475,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1089</v>
       </c>
@@ -18501,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1089</v>
       </c>
@@ -18527,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1089</v>
       </c>
@@ -18556,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1089</v>
       </c>
@@ -18582,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1089</v>
       </c>
@@ -18611,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1089</v>
       </c>
@@ -18640,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1089</v>
       </c>
@@ -18669,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1089</v>
       </c>
@@ -18698,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1089</v>
       </c>
@@ -18727,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1089</v>
       </c>
@@ -18756,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1089</v>
       </c>
@@ -18785,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1089</v>
       </c>
@@ -18814,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1089</v>
       </c>
@@ -18843,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1089</v>
       </c>
@@ -18872,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1089</v>
       </c>
@@ -18898,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1089</v>
       </c>
@@ -18924,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1089</v>
       </c>
@@ -18950,7 +19002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1089</v>
       </c>
@@ -18973,7 +19025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1089</v>
       </c>
@@ -18999,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1089</v>
       </c>
@@ -19025,7 +19077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1089</v>
       </c>
@@ -19051,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1089</v>
       </c>
@@ -19077,7 +19129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1089</v>
       </c>
@@ -19103,7 +19155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1089</v>
       </c>
@@ -19129,7 +19181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1089</v>
       </c>
@@ -19155,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1089</v>
       </c>
@@ -19181,7 +19233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1089</v>
       </c>
@@ -19207,7 +19259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1089</v>
       </c>
@@ -19233,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1089</v>
       </c>
@@ -19259,7 +19311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1089</v>
       </c>
@@ -19285,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1089</v>
       </c>
@@ -19314,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1089</v>
       </c>
@@ -19340,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1089</v>
       </c>
@@ -19369,7 +19421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1089</v>
       </c>
@@ -19398,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1089</v>
       </c>
@@ -19427,7 +19479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1089</v>
       </c>
@@ -19456,7 +19508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1089</v>
       </c>
@@ -19485,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1089</v>
       </c>
@@ -19514,7 +19566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1089</v>
       </c>
@@ -19543,7 +19595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1089</v>
       </c>
@@ -19572,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1089</v>
       </c>
@@ -19601,7 +19653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1089</v>
       </c>
@@ -19630,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1089</v>
       </c>
@@ -19659,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1089</v>
       </c>
@@ -19688,7 +19740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1089</v>
       </c>
@@ -19717,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1089</v>
       </c>
@@ -19746,7 +19798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1089</v>
       </c>
@@ -19775,7 +19827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1089</v>
       </c>
@@ -19804,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1089</v>
       </c>
@@ -19833,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1089</v>
       </c>
@@ -19862,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1089</v>
       </c>
@@ -19891,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1089</v>
       </c>
@@ -19920,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1089</v>
       </c>
@@ -19949,7 +20001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1089</v>
       </c>
@@ -19978,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1089</v>
       </c>
@@ -20007,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1089</v>
       </c>
@@ -20036,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1089</v>
       </c>
@@ -20065,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1089</v>
       </c>
@@ -20094,7 +20146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1089</v>
       </c>
@@ -20123,7 +20175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1089</v>
       </c>
@@ -20152,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1089</v>
       </c>
@@ -20181,7 +20233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1089</v>
       </c>
@@ -20210,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1089</v>
       </c>
@@ -20239,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1089</v>
       </c>
@@ -20268,7 +20320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1089</v>
       </c>
@@ -20297,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1089</v>
       </c>
@@ -20326,7 +20378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1089</v>
       </c>
@@ -20355,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1089</v>
       </c>
@@ -20384,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1089</v>
       </c>
@@ -20413,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1089</v>
       </c>
@@ -20442,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1089</v>
       </c>
@@ -20471,7 +20523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1089</v>
       </c>
@@ -20500,7 +20552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1089</v>
       </c>
@@ -20529,7 +20581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1089</v>
       </c>
@@ -20558,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1089</v>
       </c>
@@ -20587,7 +20639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1089</v>
       </c>
@@ -20616,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1089</v>
       </c>
@@ -20645,7 +20697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1089</v>
       </c>
@@ -20671,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1089</v>
       </c>
@@ -20700,7 +20752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1089</v>
       </c>
@@ -20729,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1089</v>
       </c>
@@ -20758,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1089</v>
       </c>
@@ -20787,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1089</v>
       </c>
@@ -20816,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1089</v>
       </c>
@@ -20845,7 +20897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1089</v>
       </c>
@@ -20874,7 +20926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1089</v>
       </c>
@@ -20903,7 +20955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1089</v>
       </c>
@@ -20932,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1089</v>
       </c>
@@ -20961,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1089</v>
       </c>
@@ -20990,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1089</v>
       </c>
@@ -21019,7 +21071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1089</v>
       </c>
@@ -21048,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1089</v>
       </c>
@@ -21077,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1089</v>
       </c>
@@ -21106,7 +21158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1089</v>
       </c>
@@ -21135,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1089</v>
       </c>
@@ -21164,7 +21216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1089</v>
       </c>
@@ -21193,7 +21245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1089</v>
       </c>
@@ -21222,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1089</v>
       </c>
@@ -21251,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1089</v>
       </c>
@@ -21280,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1089</v>
       </c>
@@ -21309,7 +21361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1089</v>
       </c>
@@ -21338,7 +21390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1089</v>
       </c>
@@ -21367,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1089</v>
       </c>
@@ -21396,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1089</v>
       </c>
@@ -21425,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1089</v>
       </c>
@@ -21454,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1089</v>
       </c>
@@ -21483,7 +21535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1089</v>
       </c>
@@ -21512,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1089</v>
       </c>
@@ -21541,7 +21593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1089</v>
       </c>
@@ -21570,7 +21622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1089</v>
       </c>
@@ -21599,7 +21651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1089</v>
       </c>
@@ -21628,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1089</v>
       </c>
@@ -21657,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1089</v>
       </c>
@@ -21686,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1089</v>
       </c>
@@ -21715,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1089</v>
       </c>
@@ -21744,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1089</v>
       </c>
@@ -21773,7 +21825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1089</v>
       </c>
@@ -21802,7 +21854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1089</v>
       </c>
@@ -21831,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1089</v>
       </c>
@@ -21860,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1089</v>
       </c>
@@ -21886,7 +21938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1089</v>
       </c>
@@ -21915,7 +21967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1089</v>
       </c>
@@ -21944,7 +21996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1089</v>
       </c>
@@ -21973,7 +22025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1089</v>
       </c>
@@ -22002,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1089</v>
       </c>
@@ -22031,7 +22083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1089</v>
       </c>
@@ -22060,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1089</v>
       </c>
@@ -22089,7 +22141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1089</v>
       </c>
@@ -22118,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1089</v>
       </c>
@@ -22147,7 +22199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1089</v>
       </c>
@@ -22176,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1089</v>
       </c>
@@ -22205,7 +22257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1089</v>
       </c>
@@ -22234,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1089</v>
       </c>
@@ -22263,7 +22315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1089</v>
       </c>
@@ -22292,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1089</v>
       </c>
@@ -22321,7 +22373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1089</v>
       </c>
@@ -22350,7 +22402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1089</v>
       </c>
@@ -22379,7 +22431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1089</v>
       </c>
@@ -22408,7 +22460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1089</v>
       </c>
@@ -22437,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1089</v>
       </c>
@@ -22466,7 +22518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1089</v>
       </c>
@@ -22495,7 +22547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1089</v>
       </c>
@@ -22524,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1089</v>
       </c>
@@ -22553,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1089</v>
       </c>
@@ -22582,7 +22634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1089</v>
       </c>
@@ -22611,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1089</v>
       </c>
@@ -22637,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1089</v>
       </c>
@@ -22666,7 +22718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1089</v>
       </c>
@@ -22695,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1747</v>
       </c>
@@ -22724,7 +22776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1747</v>
       </c>
@@ -22753,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1747</v>
       </c>
@@ -22782,7 +22834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1747</v>
       </c>
@@ -22811,7 +22863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1747</v>
       </c>
@@ -22840,7 +22892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1747</v>
       </c>
@@ -22869,7 +22921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1747</v>
       </c>
@@ -22898,7 +22950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1747</v>
       </c>
@@ -22927,7 +22979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1747</v>
       </c>
@@ -22953,7 +23005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1747</v>
       </c>
@@ -22982,7 +23034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1747</v>
       </c>
@@ -23011,7 +23063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1747</v>
       </c>
@@ -23040,7 +23092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1747</v>
       </c>
@@ -23069,7 +23121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1747</v>
       </c>
@@ -23098,7 +23150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1747</v>
       </c>
@@ -23124,7 +23176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1747</v>
       </c>
@@ -23153,7 +23205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1747</v>
       </c>
@@ -23182,7 +23234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1747</v>
       </c>
@@ -23211,7 +23263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>1747</v>
       </c>
@@ -23240,7 +23292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>1747</v>
       </c>
@@ -23269,7 +23321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>1747</v>
       </c>
@@ -23298,7 +23350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>1747</v>
       </c>
@@ -23327,7 +23379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1747</v>
       </c>
@@ -23356,7 +23408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1747</v>
       </c>
@@ -23385,7 +23437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1747</v>
       </c>
@@ -23414,7 +23466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1747</v>
       </c>
@@ -23443,7 +23495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>1747</v>
       </c>
@@ -23472,7 +23524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>1747</v>
       </c>
@@ -23501,7 +23553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1747</v>
       </c>
@@ -23530,7 +23582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1747</v>
       </c>
@@ -23559,7 +23611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1747</v>
       </c>
@@ -23588,7 +23640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1747</v>
       </c>
@@ -23617,7 +23669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1747</v>
       </c>
@@ -23646,7 +23698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1747</v>
       </c>
@@ -23675,7 +23727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1747</v>
       </c>
@@ -23704,7 +23756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1747</v>
       </c>
@@ -23733,7 +23785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1747</v>
       </c>
@@ -23759,7 +23811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1747</v>
       </c>
@@ -23788,7 +23840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1747</v>
       </c>
@@ -23817,7 +23869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1747</v>
       </c>
@@ -23846,7 +23898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1747</v>
       </c>
@@ -23875,7 +23927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1747</v>
       </c>
@@ -23904,7 +23956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1747</v>
       </c>
@@ -23933,7 +23985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1747</v>
       </c>
@@ -23962,7 +24014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1747</v>
       </c>
@@ -23991,7 +24043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1747</v>
       </c>
@@ -24020,7 +24072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1747</v>
       </c>
@@ -24049,7 +24101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1747</v>
       </c>
@@ -24075,7 +24127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1747</v>
       </c>
@@ -24104,7 +24156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1747</v>
       </c>
@@ -24130,7 +24182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1747</v>
       </c>
@@ -24159,7 +24211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1747</v>
       </c>
@@ -24188,7 +24240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1747</v>
       </c>
@@ -24217,7 +24269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1747</v>
       </c>
@@ -24246,7 +24298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1747</v>
       </c>
@@ -24275,7 +24327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1747</v>
       </c>
@@ -24304,7 +24356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1747</v>
       </c>
@@ -24330,7 +24382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1956</v>
       </c>
@@ -24359,7 +24411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1961</v>
       </c>
@@ -24382,7 +24434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1961</v>
       </c>
@@ -24405,7 +24457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1961</v>
       </c>
@@ -24428,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1961</v>
       </c>
@@ -24451,7 +24503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1961</v>
       </c>
@@ -24474,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1961</v>
       </c>
@@ -24497,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1961</v>
       </c>
@@ -24520,7 +24572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1961</v>
       </c>
@@ -24543,7 +24595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1961</v>
       </c>
@@ -24566,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1961</v>
       </c>
@@ -24589,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>1961</v>
       </c>
@@ -24612,7 +24664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1961</v>
       </c>
@@ -24635,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1961</v>
       </c>
@@ -24658,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1961</v>
       </c>
@@ -24681,7 +24733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>1961</v>
       </c>
@@ -24704,7 +24756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>1961</v>
       </c>
@@ -24727,7 +24779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>1961</v>
       </c>
@@ -24750,7 +24802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1961</v>
       </c>
@@ -24773,7 +24825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1961</v>
       </c>
@@ -24796,7 +24848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1961</v>
       </c>
@@ -24819,7 +24871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1961</v>
       </c>
@@ -24842,7 +24894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1961</v>
       </c>
@@ -24865,7 +24917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>1961</v>
       </c>
@@ -24888,7 +24940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1961</v>
       </c>
@@ -24911,7 +24963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1961</v>
       </c>
@@ -24934,7 +24986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1961</v>
       </c>
@@ -24957,7 +25009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1961</v>
       </c>
@@ -24980,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>1961</v>
       </c>
@@ -25003,7 +25055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1961</v>
       </c>
@@ -25026,7 +25078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>1961</v>
       </c>
@@ -25049,7 +25101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>2022</v>
       </c>
@@ -25075,7 +25127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>2026</v>
       </c>
@@ -25101,7 +25153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>2026</v>
       </c>
@@ -25127,7 +25179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>2026</v>
       </c>
@@ -25153,7 +25205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>2026</v>
       </c>
@@ -25179,7 +25231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>2026</v>
       </c>
@@ -25205,7 +25257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>2026</v>
       </c>
@@ -25231,7 +25283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>2026</v>
       </c>
@@ -25257,7 +25309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>2026</v>
       </c>
@@ -25283,7 +25335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>2026</v>
       </c>
@@ -25309,7 +25361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>2026</v>
       </c>
@@ -25332,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>2026</v>
       </c>
@@ -25358,7 +25410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>2026</v>
       </c>
@@ -25384,7 +25436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>2026</v>
       </c>
@@ -25410,7 +25462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>2026</v>
       </c>
@@ -25436,7 +25488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>2026</v>
       </c>
@@ -25462,7 +25514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>2026</v>
       </c>
@@ -25488,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>2026</v>
       </c>
@@ -25514,7 +25566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>2026</v>
       </c>
@@ -25543,7 +25595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>2026</v>
       </c>
@@ -25572,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>2026</v>
       </c>
@@ -25601,7 +25653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>2026</v>
       </c>
@@ -25630,7 +25682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>2026</v>
       </c>
@@ -25659,7 +25711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>2026</v>
       </c>
@@ -25688,7 +25740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>2026</v>
       </c>
@@ -25717,7 +25769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>2026</v>
       </c>
@@ -25746,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>2026</v>
       </c>
@@ -25772,7 +25824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>2026</v>
       </c>
@@ -25798,7 +25850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>2026</v>
       </c>
@@ -25824,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>2026</v>
       </c>
@@ -25850,7 +25902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>2026</v>
       </c>
@@ -25876,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>2026</v>
       </c>
@@ -25902,7 +25954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>2026</v>
       </c>
@@ -25928,7 +25980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>2026</v>
       </c>
@@ -25954,7 +26006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>2026</v>
       </c>
@@ -25980,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>2026</v>
       </c>
@@ -26006,7 +26058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>2026</v>
       </c>
@@ -26032,7 +26084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>2026</v>
       </c>
@@ -26058,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>2026</v>
       </c>
@@ -26084,7 +26136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>2026</v>
       </c>
@@ -26110,7 +26162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>2026</v>
       </c>
@@ -26136,7 +26188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>2026</v>
       </c>
@@ -26165,7 +26217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>2026</v>
       </c>
@@ -26191,7 +26243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>2026</v>
       </c>
@@ -26217,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>2026</v>
       </c>
@@ -26243,7 +26295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>2026</v>
       </c>
@@ -26269,7 +26321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>2026</v>
       </c>
@@ -26295,7 +26347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>2026</v>
       </c>
@@ -26321,7 +26373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>2026</v>
       </c>
@@ -26347,7 +26399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>2026</v>
       </c>
@@ -26373,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>2026</v>
       </c>
@@ -26399,7 +26451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:9">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>2026</v>
       </c>
@@ -26425,7 +26477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>2026</v>
       </c>
@@ -26451,7 +26503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>2026</v>
       </c>
@@ -26477,7 +26529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>2026</v>
       </c>
@@ -26503,7 +26555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:9">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>2026</v>
       </c>
@@ -26529,7 +26581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:9">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>2026</v>
       </c>
@@ -26555,7 +26607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:9">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>2026</v>
       </c>
@@ -26581,7 +26633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:9">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>2026</v>
       </c>
@@ -26607,7 +26659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:9">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>2026</v>
       </c>
@@ -26633,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:9">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>2026</v>
       </c>
@@ -26659,7 +26711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:9">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>2026</v>
       </c>
@@ -26685,7 +26737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:9">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>2026</v>
       </c>
@@ -26711,7 +26763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:9">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>2026</v>
       </c>
@@ -26737,7 +26789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:9">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>2026</v>
       </c>
@@ -26763,7 +26815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:9">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>2026</v>
       </c>
@@ -26789,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>2026</v>
       </c>
@@ -26815,7 +26867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>2026</v>
       </c>
@@ -26841,7 +26893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>2026</v>
       </c>
@@ -26867,7 +26919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>2232</v>
       </c>
@@ -26893,7 +26945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:9">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>2232</v>
       </c>
@@ -26922,7 +26974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:9">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>2232</v>
       </c>
@@ -26948,7 +27000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:9">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>2232</v>
       </c>
@@ -26974,7 +27026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>2232</v>
       </c>
@@ -27000,7 +27052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:9">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>2232</v>
       </c>
@@ -27026,7 +27078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>2232</v>
       </c>
@@ -27052,7 +27104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>2232</v>
       </c>
@@ -27081,7 +27133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>2232</v>
       </c>
@@ -27110,7 +27162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>2232</v>
       </c>
@@ -27139,7 +27191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>2232</v>
       </c>
@@ -27165,7 +27217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>2232</v>
       </c>
@@ -27194,7 +27246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>2232</v>
       </c>
@@ -27220,7 +27272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>2232</v>
       </c>
@@ -27249,7 +27301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>2232</v>
       </c>
@@ -27278,7 +27330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:9">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>2232</v>
       </c>
@@ -27304,7 +27356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>2232</v>
       </c>
@@ -27330,7 +27382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>2232</v>
       </c>
@@ -27359,7 +27411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>2232</v>
       </c>
@@ -27388,7 +27440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>2232</v>
       </c>
@@ -27417,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>2232</v>
       </c>
@@ -27446,7 +27498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>2232</v>
       </c>
@@ -27472,7 +27524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>2232</v>
       </c>
@@ -27501,7 +27553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:9">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>2232</v>
       </c>
@@ -27527,7 +27579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:9">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>2232</v>
       </c>
@@ -27553,7 +27605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:9">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>2232</v>
       </c>
@@ -27582,7 +27634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:9">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>2232</v>
       </c>
@@ -27611,7 +27663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:9">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>2232</v>
       </c>
@@ -27640,7 +27692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:9">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>2232</v>
       </c>
@@ -27666,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:9">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>2232</v>
       </c>
@@ -27695,7 +27747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:9">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>2232</v>
       </c>
@@ -27724,7 +27776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:9">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>2232</v>
       </c>
@@ -27753,7 +27805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:9">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>2232</v>
       </c>
@@ -27782,7 +27834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:9">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>2232</v>
       </c>
@@ -27808,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:9">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>2232</v>
       </c>
@@ -27831,7 +27883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:9">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>2232</v>
       </c>
@@ -27857,7 +27909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:9">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>2232</v>
       </c>
@@ -27886,7 +27938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:9">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>2232</v>
       </c>
@@ -27915,7 +27967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:9">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>2232</v>
       </c>
@@ -27944,7 +27996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:9">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>2232</v>
       </c>
@@ -27973,7 +28025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:9">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>2232</v>
       </c>
@@ -28002,7 +28054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:9">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>2232</v>
       </c>
@@ -28031,7 +28083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:9">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>2232</v>
       </c>
@@ -28060,7 +28112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>2232</v>
       </c>
@@ -28089,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:9">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>2232</v>
       </c>
@@ -28118,7 +28170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>2232</v>
       </c>
@@ -28147,7 +28199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:9">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>2232</v>
       </c>
@@ -28176,7 +28228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:9">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>2232</v>
       </c>
@@ -28202,7 +28254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:9">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>2232</v>
       </c>
@@ -28231,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:9">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>2232</v>
       </c>
@@ -28260,7 +28312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:9">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>2232</v>
       </c>
@@ -28289,7 +28341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:9">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>2232</v>
       </c>
@@ -28315,7 +28367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:9">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>2232</v>
       </c>
@@ -28344,7 +28396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:9">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>2232</v>
       </c>
@@ -28373,7 +28425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:9">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>2232</v>
       </c>
@@ -28402,7 +28454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:9">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>2232</v>
       </c>
@@ -28428,7 +28480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:9">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>2232</v>
       </c>
@@ -28457,7 +28509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:9">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>2232</v>
       </c>
@@ -28486,7 +28538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:9">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>2232</v>
       </c>
@@ -28515,7 +28567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:9">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>2232</v>
       </c>
@@ -28541,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:9">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>2232</v>
       </c>
@@ -28570,7 +28622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>2232</v>
       </c>
@@ -28599,7 +28651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:9">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>2232</v>
       </c>
@@ -28628,7 +28680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:9">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>2232</v>
       </c>
@@ -28657,7 +28709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:9">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>2232</v>
       </c>
@@ -28686,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>2232</v>
       </c>
@@ -28715,7 +28767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>2232</v>
       </c>
@@ -28741,7 +28793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:9">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>2232</v>
       </c>
@@ -28770,7 +28822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:9">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>2232</v>
       </c>
@@ -28793,7 +28845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:9">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>2232</v>
       </c>
@@ -28819,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:9">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>2232</v>
       </c>
@@ -28845,7 +28897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:9">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>2232</v>
       </c>
@@ -28871,7 +28923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:9">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>2232</v>
       </c>
@@ -28894,7 +28946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:9">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>2232</v>
       </c>
@@ -28920,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:9">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>2232</v>
       </c>
@@ -28943,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:9">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>2232</v>
       </c>
@@ -28969,7 +29021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>2232</v>
       </c>
@@ -28995,7 +29047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:9">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>2232</v>
       </c>
@@ -29021,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>2232</v>
       </c>
@@ -29047,7 +29099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:9">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>2232</v>
       </c>
@@ -29076,7 +29128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:9">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>2232</v>
       </c>
@@ -29105,7 +29157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:9">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>2232</v>
       </c>
@@ -29134,7 +29186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:9">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>2232</v>
       </c>
@@ -29160,7 +29212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:9">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>2232</v>
       </c>
@@ -29189,7 +29241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:9">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>2232</v>
       </c>
@@ -29215,7 +29267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:9">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>2232</v>
       </c>
@@ -29241,7 +29293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>2232</v>
       </c>
@@ -29267,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>2232</v>
       </c>
@@ -29293,7 +29345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:9">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>2232</v>
       </c>
@@ -29319,7 +29371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:9">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>2232</v>
       </c>
@@ -29345,7 +29397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:9">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>2232</v>
       </c>
@@ -29374,7 +29426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>2232</v>
       </c>
@@ -29400,7 +29452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:9">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>2232</v>
       </c>
@@ -29429,7 +29481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:9">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>2232</v>
       </c>
@@ -29458,7 +29510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>2232</v>
       </c>
@@ -29487,7 +29539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:9">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>2232</v>
       </c>
@@ -29516,7 +29568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:9">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>2232</v>
       </c>
@@ -29542,7 +29594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:9">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>2232</v>
       </c>
@@ -29571,7 +29623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:9">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>2232</v>
       </c>
@@ -29597,7 +29649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:9">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>2232</v>
       </c>
@@ -29623,7 +29675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>2232</v>
       </c>
@@ -29652,7 +29704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:9">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>2232</v>
       </c>
@@ -29678,7 +29730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:9">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>2232</v>
       </c>
@@ -29707,7 +29759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:9">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>2232</v>
       </c>
@@ -29733,7 +29785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:9">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>2232</v>
       </c>
@@ -29759,7 +29811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:9">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>2232</v>
       </c>
@@ -29788,7 +29840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:9">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>2232</v>
       </c>
@@ -29814,7 +29866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:9">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>2232</v>
       </c>
@@ -29843,7 +29895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:9">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>2232</v>
       </c>
@@ -29872,7 +29924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:9">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>2232</v>
       </c>
@@ -29901,7 +29953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:9">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>2232</v>
       </c>
@@ -29927,7 +29979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:9">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>2232</v>
       </c>
@@ -29956,7 +30008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:9">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>2232</v>
       </c>
@@ -29982,7 +30034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:9">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>2232</v>
       </c>
@@ -30008,7 +30060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:9">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>2232</v>
       </c>
@@ -30034,7 +30086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:9">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>2232</v>
       </c>
@@ -30063,9 +30115,112 @@
         <v>0</v>
       </c>
     </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A805" s="12" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B805" s="12" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D805" s="11" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F805" t="s">
+        <v>18</v>
+      </c>
+      <c r="G805" t="b">
+        <v>1</v>
+      </c>
+      <c r="H805" t="b">
+        <v>0</v>
+      </c>
+      <c r="I805" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A806" s="12" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B806" s="12" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D806" s="11" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F806" t="s">
+        <v>18</v>
+      </c>
+      <c r="G806" t="b">
+        <v>1</v>
+      </c>
+      <c r="H806" t="b">
+        <v>0</v>
+      </c>
+      <c r="I806" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A807" s="12" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B807" s="12" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D807" s="11" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F807" t="s">
+        <v>18</v>
+      </c>
+      <c r="G807" t="b">
+        <v>1</v>
+      </c>
+      <c r="H807" t="b">
+        <v>0</v>
+      </c>
+      <c r="I807" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A808" s="12" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B808" s="12" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D808" s="11" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F808" t="s">
+        <v>18</v>
+      </c>
+      <c r="G808" t="b">
+        <v>1</v>
+      </c>
+      <c r="H808" t="b">
+        <v>0</v>
+      </c>
+      <c r="I808" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A809" s="12" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B809" s="12" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F809" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I804" xr:uid="{4657623A-36D5-0B49-91B8-725C7746E161}"/>
-  <sortState ref="A2:I811">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I811">
     <sortCondition ref="A2:A811"/>
     <sortCondition ref="B2:B811"/>
   </sortState>

--- a/src/data/journal_list_author_tool.xlsx
+++ b/src/data/journal_list_author_tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agentilb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A2A797-3F56-6B48-9E47-BEED457E851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C664537B-9F1D-744C-A799-9981AF7EED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{67449CF9-DB1C-4B4F-98C0-4EBCE6DE731C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$811</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$812</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="2646">
   <si>
     <t>Publisher</t>
   </si>
@@ -7969,6 +7969,12 @@
   </si>
   <si>
     <t>2160-3308</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>2624-8174</t>
   </si>
 </sst>
 </file>
@@ -8439,10 +8445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DF247D-5B3D-334B-90BD-AE1DB8E2833F}">
-  <dimension ref="A1:I811"/>
+  <dimension ref="A1:I812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B819" sqref="B819"/>
+    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E616" sqref="E616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17393,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>49</v>
       </c>
@@ -24253,7 +24259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1747</v>
       </c>
@@ -25060,15 +25066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1961</v>
       </c>
       <c r="B616" t="s">
-        <v>2010</v>
+        <v>2644</v>
       </c>
       <c r="E616" t="s">
-        <v>2011</v>
+        <v>2645</v>
       </c>
       <c r="F616" t="s">
         <v>14</v>
@@ -25088,10 +25094,10 @@
         <v>1961</v>
       </c>
       <c r="B617" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E617" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F617" t="s">
         <v>14</v>
@@ -25111,10 +25117,10 @@
         <v>1961</v>
       </c>
       <c r="B618" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E618" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F618" t="s">
         <v>14</v>
@@ -25134,10 +25140,10 @@
         <v>1961</v>
       </c>
       <c r="B619" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E619" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F619" t="s">
         <v>14</v>
@@ -25157,10 +25163,10 @@
         <v>1961</v>
       </c>
       <c r="B620" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E620" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F620" t="s">
         <v>14</v>
@@ -25180,10 +25186,10 @@
         <v>1961</v>
       </c>
       <c r="B621" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E621" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F621" t="s">
         <v>14</v>
@@ -25200,51 +25206,51 @@
     </row>
     <row r="622" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B622" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E622" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F622" t="s">
+        <v>14</v>
+      </c>
+      <c r="G622" t="b">
+        <v>1</v>
+      </c>
+      <c r="H622" t="b">
+        <v>1</v>
+      </c>
+      <c r="I622" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
         <v>2022</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B623" t="s">
         <v>2023</v>
       </c>
-      <c r="C622" t="s">
+      <c r="C623" t="s">
         <v>2024</v>
       </c>
-      <c r="E622" t="s">
+      <c r="E623" t="s">
         <v>2025</v>
       </c>
-      <c r="F622" t="s">
+      <c r="F623" t="s">
         <v>30</v>
       </c>
-      <c r="G622" t="b">
-        <v>0</v>
-      </c>
-      <c r="H622" t="b">
-        <v>0</v>
-      </c>
-      <c r="I622" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:9" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A623" s="14" t="s">
-        <v>2628</v>
-      </c>
-      <c r="B623" s="15" t="s">
-        <v>2629</v>
-      </c>
-      <c r="D623" s="13" t="s">
-        <v>2630</v>
-      </c>
-      <c r="F623" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G623" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H623" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I623" s="12" t="b">
-        <v>1</v>
+      <c r="G623" t="b">
+        <v>0</v>
+      </c>
+      <c r="H623" t="b">
+        <v>0</v>
+      </c>
+      <c r="I623" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:9" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -25252,10 +25258,10 @@
         <v>2628</v>
       </c>
       <c r="B624" s="15" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="D624" s="13" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="F624" s="12" t="s">
         <v>18</v>
@@ -25275,10 +25281,10 @@
         <v>2628</v>
       </c>
       <c r="B625" s="15" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D625" s="13" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="F625" s="12" t="s">
         <v>18</v>
@@ -25297,11 +25303,11 @@
       <c r="A626" s="14" t="s">
         <v>2628</v>
       </c>
-      <c r="B626" s="16" t="s">
-        <v>2636</v>
+      <c r="B626" s="15" t="s">
+        <v>2635</v>
       </c>
       <c r="D626" s="13" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="F626" s="12" t="s">
         <v>18</v>
@@ -25320,10 +25326,12 @@
       <c r="A627" s="14" t="s">
         <v>2628</v>
       </c>
-      <c r="B627" s="15" t="s">
-        <v>2637</v>
-      </c>
-      <c r="D627" s="13"/>
+      <c r="B627" s="16" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D627" s="13" t="s">
+        <v>2633</v>
+      </c>
       <c r="F627" s="12" t="s">
         <v>18</v>
       </c>
@@ -25337,30 +25345,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A628" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B628" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D628" s="11" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E628" t="s">
-        <v>2029</v>
-      </c>
-      <c r="F628" t="s">
-        <v>14</v>
-      </c>
-      <c r="G628" t="b">
-        <v>1</v>
-      </c>
-      <c r="H628" t="b">
-        <v>0</v>
-      </c>
-      <c r="I628" t="b">
-        <v>0</v>
+    <row r="628" spans="1:9" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A628" s="14" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B628" s="15" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D628" s="13"/>
+      <c r="F628" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G628" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H628" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I628" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -25368,13 +25371,13 @@
         <v>2026</v>
       </c>
       <c r="B629" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="D629" s="11" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="E629" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="F629" t="s">
         <v>14</v>
@@ -25394,13 +25397,13 @@
         <v>2026</v>
       </c>
       <c r="B630" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="D630" s="11" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="E630" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="F630" t="s">
         <v>14</v>
@@ -25415,18 +25418,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>2026</v>
       </c>
       <c r="B631" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="D631" s="11" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="E631" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="F631" t="s">
         <v>14</v>
@@ -25446,13 +25449,13 @@
         <v>2026</v>
       </c>
       <c r="B632" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="D632" s="11" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="E632" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="F632" t="s">
         <v>14</v>
@@ -25472,13 +25475,13 @@
         <v>2026</v>
       </c>
       <c r="B633" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="D633" s="11" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="E633" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="F633" t="s">
         <v>14</v>
@@ -25498,13 +25501,13 @@
         <v>2026</v>
       </c>
       <c r="B634" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D634" s="11" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="E634" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="F634" t="s">
         <v>14</v>
@@ -25524,13 +25527,13 @@
         <v>2026</v>
       </c>
       <c r="B635" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="D635" s="11" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="E635" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="F635" t="s">
         <v>14</v>
@@ -25550,13 +25553,13 @@
         <v>2026</v>
       </c>
       <c r="B636" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D636" s="11" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="E636" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="F636" t="s">
         <v>14</v>
@@ -25575,11 +25578,14 @@
       <c r="A637" t="s">
         <v>2026</v>
       </c>
-      <c r="B637" s="8" t="s">
-        <v>2054</v>
-      </c>
-      <c r="E637" s="8" t="s">
-        <v>2055</v>
+      <c r="B637" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D637" s="11" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E637" t="s">
+        <v>2053</v>
       </c>
       <c r="F637" t="s">
         <v>14</v>
@@ -25594,18 +25600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>2026</v>
       </c>
-      <c r="B638" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D638" s="11" t="s">
-        <v>2057</v>
-      </c>
-      <c r="E638" t="s">
-        <v>2058</v>
+      <c r="B638" s="8" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E638" s="8" t="s">
+        <v>2055</v>
       </c>
       <c r="F638" t="s">
         <v>14</v>
@@ -25625,13 +25628,13 @@
         <v>2026</v>
       </c>
       <c r="B639" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="D639" s="11" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="E639" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="F639" t="s">
         <v>14</v>
@@ -25651,13 +25654,13 @@
         <v>2026</v>
       </c>
       <c r="B640" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="D640" s="11" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="E640" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="F640" t="s">
         <v>14</v>
@@ -25677,13 +25680,13 @@
         <v>2026</v>
       </c>
       <c r="B641" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D641" s="11" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="E641" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="F641" t="s">
         <v>14</v>
@@ -25703,13 +25706,13 @@
         <v>2026</v>
       </c>
       <c r="B642" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D642" s="11" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="E642" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="F642" t="s">
         <v>14</v>
@@ -25729,13 +25732,13 @@
         <v>2026</v>
       </c>
       <c r="B643" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="D643" s="11" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="E643" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="F643" t="s">
         <v>14</v>
@@ -25755,13 +25758,13 @@
         <v>2026</v>
       </c>
       <c r="B644" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D644" s="11" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="E644" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="F644" t="s">
         <v>14</v>
@@ -25781,16 +25784,13 @@
         <v>2026</v>
       </c>
       <c r="B645" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C645" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="D645" s="11" t="s">
-        <v>1092</v>
+        <v>2075</v>
       </c>
       <c r="E645" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="F645" t="s">
         <v>14</v>
@@ -25810,16 +25810,16 @@
         <v>2026</v>
       </c>
       <c r="B646" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="C646" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D646" s="11" t="s">
-        <v>2082</v>
+        <v>1092</v>
       </c>
       <c r="E646" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="F646" t="s">
         <v>14</v>
@@ -25839,28 +25839,28 @@
         <v>2026</v>
       </c>
       <c r="B647" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="C647" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="D647" s="11" t="s">
-        <v>1092</v>
+        <v>2082</v>
       </c>
       <c r="E647" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="F647" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G647" t="b">
         <v>1</v>
       </c>
       <c r="H647" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -25868,28 +25868,28 @@
         <v>2026</v>
       </c>
       <c r="B648" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="C648" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D648" s="11" t="s">
-        <v>2089</v>
+        <v>1092</v>
       </c>
       <c r="E648" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="F648" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G648" t="b">
         <v>1</v>
       </c>
       <c r="H648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -25897,16 +25897,16 @@
         <v>2026</v>
       </c>
       <c r="B649" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="C649" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D649" s="11" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="E649" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="F649" t="s">
         <v>14</v>
@@ -25926,16 +25926,16 @@
         <v>2026</v>
       </c>
       <c r="B650" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="C650" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="D650" s="11" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="E650" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="F650" t="s">
         <v>14</v>
@@ -25955,16 +25955,16 @@
         <v>2026</v>
       </c>
       <c r="B651" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="C651" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="D651" s="11" t="s">
-        <v>1092</v>
+        <v>2097</v>
       </c>
       <c r="E651" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="F651" t="s">
         <v>14</v>
@@ -25984,16 +25984,16 @@
         <v>2026</v>
       </c>
       <c r="B652" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C652" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="D652" s="11" t="s">
-        <v>2104</v>
+        <v>1092</v>
       </c>
       <c r="E652" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="F652" t="s">
         <v>14</v>
@@ -26013,13 +26013,16 @@
         <v>2026</v>
       </c>
       <c r="B653" t="s">
-        <v>2106</v>
+        <v>2102</v>
+      </c>
+      <c r="C653" t="s">
+        <v>2103</v>
       </c>
       <c r="D653" s="11" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="E653" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="F653" t="s">
         <v>14</v>
@@ -26039,13 +26042,13 @@
         <v>2026</v>
       </c>
       <c r="B654" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D654" s="11" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="E654" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="F654" t="s">
         <v>14</v>
@@ -26065,13 +26068,13 @@
         <v>2026</v>
       </c>
       <c r="B655" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D655" s="11" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="E655" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="F655" t="s">
         <v>14</v>
@@ -26091,13 +26094,13 @@
         <v>2026</v>
       </c>
       <c r="B656" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="D656" s="11" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="E656" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="F656" t="s">
         <v>14</v>
@@ -26117,13 +26120,13 @@
         <v>2026</v>
       </c>
       <c r="B657" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D657" s="11" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="E657" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="F657" t="s">
         <v>14</v>
@@ -26143,13 +26146,13 @@
         <v>2026</v>
       </c>
       <c r="B658" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="D658" s="11" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="E658" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="F658" t="s">
         <v>14</v>
@@ -26169,13 +26172,13 @@
         <v>2026</v>
       </c>
       <c r="B659" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="D659" s="11" t="s">
-        <v>1092</v>
+        <v>2122</v>
       </c>
       <c r="E659" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F659" t="s">
         <v>14</v>
@@ -26195,13 +26198,13 @@
         <v>2026</v>
       </c>
       <c r="B660" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D660" s="11" t="s">
-        <v>2127</v>
+        <v>1092</v>
       </c>
       <c r="E660" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="F660" t="s">
         <v>14</v>
@@ -26221,13 +26224,13 @@
         <v>2026</v>
       </c>
       <c r="B661" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="D661" s="11" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="E661" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="F661" t="s">
         <v>14</v>
@@ -26247,13 +26250,13 @@
         <v>2026</v>
       </c>
       <c r="B662" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D662" s="11" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="E662" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="F662" t="s">
         <v>14</v>
@@ -26273,13 +26276,13 @@
         <v>2026</v>
       </c>
       <c r="B663" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="D663" s="11" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="E663" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="F663" t="s">
         <v>14</v>
@@ -26299,13 +26302,13 @@
         <v>2026</v>
       </c>
       <c r="B664" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="D664" s="11" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="E664" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="F664" t="s">
         <v>14</v>
@@ -26324,14 +26327,14 @@
       <c r="A665" t="s">
         <v>2026</v>
       </c>
-      <c r="B665" s="8" t="s">
-        <v>2141</v>
+      <c r="B665" t="s">
+        <v>2138</v>
       </c>
       <c r="D665" s="11" t="s">
-        <v>2142</v>
-      </c>
-      <c r="E665" s="9" t="s">
-        <v>2143</v>
+        <v>2139</v>
+      </c>
+      <c r="E665" t="s">
+        <v>2140</v>
       </c>
       <c r="F665" t="s">
         <v>14</v>
@@ -26350,14 +26353,14 @@
       <c r="A666" t="s">
         <v>2026</v>
       </c>
-      <c r="B666" t="s">
-        <v>2144</v>
+      <c r="B666" s="8" t="s">
+        <v>2141</v>
       </c>
       <c r="D666" s="11" t="s">
-        <v>2145</v>
-      </c>
-      <c r="E666" t="s">
-        <v>2146</v>
+        <v>2142</v>
+      </c>
+      <c r="E666" s="9" t="s">
+        <v>2143</v>
       </c>
       <c r="F666" t="s">
         <v>14</v>
@@ -26377,13 +26380,13 @@
         <v>2026</v>
       </c>
       <c r="B667" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D667" s="11" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="E667" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="F667" t="s">
         <v>14</v>
@@ -26403,28 +26406,25 @@
         <v>2026</v>
       </c>
       <c r="B668" t="s">
-        <v>2150</v>
-      </c>
-      <c r="C668" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="D668" s="11" t="s">
-        <v>1092</v>
+        <v>2148</v>
       </c>
       <c r="E668" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="F668" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G668" t="b">
         <v>1</v>
       </c>
       <c r="H668" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -26432,25 +26432,28 @@
         <v>2026</v>
       </c>
       <c r="B669" t="s">
-        <v>2153</v>
+        <v>2150</v>
+      </c>
+      <c r="C669" t="s">
+        <v>2151</v>
       </c>
       <c r="D669" s="11" t="s">
-        <v>2154</v>
+        <v>1092</v>
       </c>
       <c r="E669" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="F669" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G669" t="b">
         <v>1</v>
       </c>
       <c r="H669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -26458,13 +26461,13 @@
         <v>2026</v>
       </c>
       <c r="B670" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D670" s="11" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="E670" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="F670" t="s">
         <v>14</v>
@@ -26484,13 +26487,13 @@
         <v>2026</v>
       </c>
       <c r="B671" t="s">
-        <v>1826</v>
+        <v>2156</v>
       </c>
       <c r="D671" s="11" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="E671" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="F671" t="s">
         <v>14</v>
@@ -26510,13 +26513,13 @@
         <v>2026</v>
       </c>
       <c r="B672" t="s">
-        <v>2161</v>
+        <v>1826</v>
       </c>
       <c r="D672" s="11" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="E672" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="F672" t="s">
         <v>14</v>
@@ -26535,14 +26538,14 @@
       <c r="A673" t="s">
         <v>2026</v>
       </c>
-      <c r="B673" s="8" t="s">
-        <v>2164</v>
+      <c r="B673" t="s">
+        <v>2161</v>
       </c>
       <c r="D673" s="11" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E673" s="9" t="s">
-        <v>2166</v>
+        <v>2162</v>
+      </c>
+      <c r="E673" t="s">
+        <v>2163</v>
       </c>
       <c r="F673" t="s">
         <v>14</v>
@@ -26561,14 +26564,14 @@
       <c r="A674" t="s">
         <v>2026</v>
       </c>
-      <c r="B674" t="s">
-        <v>2167</v>
+      <c r="B674" s="8" t="s">
+        <v>2164</v>
       </c>
       <c r="D674" s="11" t="s">
-        <v>2168</v>
-      </c>
-      <c r="E674" t="s">
-        <v>2169</v>
+        <v>2165</v>
+      </c>
+      <c r="E674" s="9" t="s">
+        <v>2166</v>
       </c>
       <c r="F674" t="s">
         <v>14</v>
@@ -26588,13 +26591,13 @@
         <v>2026</v>
       </c>
       <c r="B675" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="D675" s="11" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="E675" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="F675" t="s">
         <v>14</v>
@@ -26614,13 +26617,13 @@
         <v>2026</v>
       </c>
       <c r="B676" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="D676" s="11" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="E676" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="F676" t="s">
         <v>14</v>
@@ -26640,13 +26643,13 @@
         <v>2026</v>
       </c>
       <c r="B677" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="D677" s="11" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="E677" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="F677" t="s">
         <v>14</v>
@@ -26666,13 +26669,13 @@
         <v>2026</v>
       </c>
       <c r="B678" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="D678" s="11" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="E678" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="F678" t="s">
         <v>14</v>
@@ -26692,13 +26695,13 @@
         <v>2026</v>
       </c>
       <c r="B679" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="D679" s="11" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="E679" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="F679" t="s">
         <v>14</v>
@@ -26718,13 +26721,13 @@
         <v>2026</v>
       </c>
       <c r="B680" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="D680" s="11" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="E680" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="F680" t="s">
         <v>14</v>
@@ -26744,13 +26747,13 @@
         <v>2026</v>
       </c>
       <c r="B681" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="D681" s="11" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="E681" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="F681" t="s">
         <v>14</v>
@@ -26769,14 +26772,14 @@
       <c r="A682" t="s">
         <v>2026</v>
       </c>
-      <c r="B682" s="8" t="s">
-        <v>2191</v>
+      <c r="B682" t="s">
+        <v>2188</v>
       </c>
       <c r="D682" s="11" t="s">
-        <v>2192</v>
-      </c>
-      <c r="E682" s="9" t="s">
-        <v>2193</v>
+        <v>2189</v>
+      </c>
+      <c r="E682" t="s">
+        <v>2190</v>
       </c>
       <c r="F682" t="s">
         <v>14</v>
@@ -26795,14 +26798,14 @@
       <c r="A683" t="s">
         <v>2026</v>
       </c>
-      <c r="B683" t="s">
-        <v>2194</v>
+      <c r="B683" s="8" t="s">
+        <v>2191</v>
       </c>
       <c r="D683" s="11" t="s">
-        <v>2195</v>
-      </c>
-      <c r="E683" t="s">
-        <v>2196</v>
+        <v>2192</v>
+      </c>
+      <c r="E683" s="9" t="s">
+        <v>2193</v>
       </c>
       <c r="F683" t="s">
         <v>14</v>
@@ -26822,13 +26825,13 @@
         <v>2026</v>
       </c>
       <c r="B684" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="D684" s="11" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="E684" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="F684" t="s">
         <v>14</v>
@@ -26848,13 +26851,13 @@
         <v>2026</v>
       </c>
       <c r="B685" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="D685" s="11" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="E685" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="F685" t="s">
         <v>14</v>
@@ -26874,13 +26877,13 @@
         <v>2026</v>
       </c>
       <c r="B686" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="D686" s="11" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="E686" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="F686" t="s">
         <v>14</v>
@@ -26900,13 +26903,13 @@
         <v>2026</v>
       </c>
       <c r="B687" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="D687" s="11" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="E687" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="F687" t="s">
         <v>14</v>
@@ -26926,13 +26929,13 @@
         <v>2026</v>
       </c>
       <c r="B688" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="D688" s="11" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="E688" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="F688" t="s">
         <v>14</v>
@@ -26952,13 +26955,13 @@
         <v>2026</v>
       </c>
       <c r="B689" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="D689" s="11" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="E689" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="F689" t="s">
         <v>14</v>
@@ -26978,13 +26981,13 @@
         <v>2026</v>
       </c>
       <c r="B690" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="D690" s="11" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="E690" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="F690" t="s">
         <v>14</v>
@@ -27004,13 +27007,13 @@
         <v>2026</v>
       </c>
       <c r="B691" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="D691" s="11" t="s">
-        <v>1092</v>
+        <v>2216</v>
       </c>
       <c r="E691" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="F691" t="s">
         <v>14</v>
@@ -27030,13 +27033,13 @@
         <v>2026</v>
       </c>
       <c r="B692" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D692" s="11" t="s">
-        <v>2221</v>
+        <v>1092</v>
       </c>
       <c r="E692" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="F692" t="s">
         <v>14</v>
@@ -27056,13 +27059,13 @@
         <v>2026</v>
       </c>
       <c r="B693" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="D693" s="11" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="E693" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="F693" t="s">
         <v>14</v>
@@ -27082,13 +27085,13 @@
         <v>2026</v>
       </c>
       <c r="B694" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="D694" s="11" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="E694" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="F694" t="s">
         <v>14</v>
@@ -27108,13 +27111,13 @@
         <v>2026</v>
       </c>
       <c r="B695" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="D695" s="11" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="E695" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F695" t="s">
         <v>14</v>
@@ -27131,16 +27134,16 @@
     </row>
     <row r="696" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B696" s="6" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C696" t="s">
-        <v>2234</v>
+        <v>2026</v>
+      </c>
+      <c r="B696" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D696" s="11" t="s">
+        <v>2230</v>
       </c>
       <c r="E696" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="F696" t="s">
         <v>14</v>
@@ -27160,16 +27163,13 @@
         <v>2232</v>
       </c>
       <c r="B697" s="6" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="C697" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D697" s="11" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="E697" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="F697" t="s">
         <v>14</v>
@@ -27189,13 +27189,16 @@
         <v>2232</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>2239</v>
+        <v>2236</v>
+      </c>
+      <c r="C698" t="s">
+        <v>2237</v>
       </c>
       <c r="D698" s="11" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="E698" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="F698" t="s">
         <v>14</v>
@@ -27215,13 +27218,13 @@
         <v>2232</v>
       </c>
       <c r="B699" s="6" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="D699" s="11" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="E699" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="F699" t="s">
         <v>14</v>
@@ -27241,13 +27244,13 @@
         <v>2232</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="D700" s="11" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="E700" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="F700" t="s">
         <v>14</v>
@@ -27267,13 +27270,13 @@
         <v>2232</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="D701" s="11" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="E701" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="F701" t="s">
         <v>14</v>
@@ -27293,13 +27296,13 @@
         <v>2232</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="D702" s="11" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="E702" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="F702" t="s">
         <v>14</v>
@@ -27319,16 +27322,13 @@
         <v>2232</v>
       </c>
       <c r="B703" s="6" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C703" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="D703" s="11" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="E703" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="F703" t="s">
         <v>14</v>
@@ -27348,16 +27348,16 @@
         <v>2232</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="C704" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="D704" s="11" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="E704" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="F704" t="s">
         <v>14</v>
@@ -27377,16 +27377,16 @@
         <v>2232</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="C705" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="D705" s="11" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E705" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="F705" t="s">
         <v>14</v>
@@ -27406,13 +27406,16 @@
         <v>2232</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="C706" t="s">
-        <v>2264</v>
+        <v>2261</v>
+      </c>
+      <c r="D706" s="11" t="s">
+        <v>2262</v>
       </c>
       <c r="E706" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="F706" t="s">
         <v>14</v>
@@ -27432,16 +27435,13 @@
         <v>2232</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="C707" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D707" s="11" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="E707" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="F707" t="s">
         <v>14</v>
@@ -27461,13 +27461,16 @@
         <v>2232</v>
       </c>
       <c r="B708" s="6" t="s">
-        <v>2269</v>
+        <v>2266</v>
+      </c>
+      <c r="C708" t="s">
+        <v>2267</v>
       </c>
       <c r="D708" s="11" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="E708" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="F708" t="s">
         <v>14</v>
@@ -27487,16 +27490,13 @@
         <v>2232</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C709" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="D709" s="11" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="E709" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="F709" t="s">
         <v>14</v>
@@ -27516,16 +27516,16 @@
         <v>2232</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C710" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="D710" s="11" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="E710" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="F710" t="s">
         <v>14</v>
@@ -27545,13 +27545,16 @@
         <v>2232</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>2280</v>
+        <v>2276</v>
+      </c>
+      <c r="C711" t="s">
+        <v>2277</v>
       </c>
       <c r="D711" s="11" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="E711" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="F711" t="s">
         <v>14</v>
@@ -27571,13 +27574,13 @@
         <v>2232</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>2283</v>
-      </c>
-      <c r="C712" t="s">
-        <v>2284</v>
+        <v>2280</v>
+      </c>
+      <c r="D712" s="11" t="s">
+        <v>2281</v>
       </c>
       <c r="E712" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="F712" t="s">
         <v>14</v>
@@ -27597,16 +27600,13 @@
         <v>2232</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="C713" t="s">
-        <v>2287</v>
-      </c>
-      <c r="D713" s="11" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="E713" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="F713" t="s">
         <v>14</v>
@@ -27626,16 +27626,16 @@
         <v>2232</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="C714" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="D714" s="11" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="E714" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="F714" t="s">
         <v>14</v>
@@ -27655,16 +27655,16 @@
         <v>2232</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C715" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="D715" s="11" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="E715" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="F715" t="s">
         <v>14</v>
@@ -27684,16 +27684,16 @@
         <v>2232</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="C716" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="D716" s="11" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="E716" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="F716" t="s">
         <v>14</v>
@@ -27713,13 +27713,16 @@
         <v>2232</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="C717" t="s">
-        <v>2301</v>
+        <v>2298</v>
+      </c>
+      <c r="D717" s="11" t="s">
+        <v>2299</v>
       </c>
       <c r="E717" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="F717" t="s">
         <v>14</v>
@@ -27739,16 +27742,13 @@
         <v>2232</v>
       </c>
       <c r="B718" s="6" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="C718" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D718" s="11" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="E718" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="F718" t="s">
         <v>14</v>
@@ -27768,13 +27768,16 @@
         <v>2232</v>
       </c>
       <c r="B719" s="6" t="s">
-        <v>2307</v>
+        <v>2303</v>
+      </c>
+      <c r="C719" t="s">
+        <v>2304</v>
       </c>
       <c r="D719" s="11" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="E719" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="F719" t="s">
         <v>14</v>
@@ -27794,13 +27797,13 @@
         <v>2232</v>
       </c>
       <c r="B720" s="6" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="D720" s="11" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="E720" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="F720" t="s">
         <v>14</v>
@@ -27820,16 +27823,13 @@
         <v>2232</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C721" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D721" s="11" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="E721" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="F721" t="s">
         <v>14</v>
@@ -27849,16 +27849,16 @@
         <v>2232</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="C722" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="D722" s="11" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="E722" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="F722" t="s">
         <v>14</v>
@@ -27878,16 +27878,16 @@
         <v>2232</v>
       </c>
       <c r="B723" s="6" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="C723" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="D723" s="11" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="E723" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="F723" t="s">
         <v>14</v>
@@ -27907,13 +27907,16 @@
         <v>2232</v>
       </c>
       <c r="B724" s="6" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="C724" t="s">
-        <v>2326</v>
+        <v>2322</v>
+      </c>
+      <c r="D724" s="11" t="s">
+        <v>2323</v>
       </c>
       <c r="E724" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="F724" t="s">
         <v>14</v>
@@ -27933,16 +27936,13 @@
         <v>2232</v>
       </c>
       <c r="B725" s="6" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="C725" t="s">
-        <v>2329</v>
-      </c>
-      <c r="D725" s="11" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="E725" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="F725" t="s">
         <v>14</v>
@@ -27962,16 +27962,16 @@
         <v>2232</v>
       </c>
       <c r="B726" s="6" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="C726" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="D726" s="11" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="E726" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="F726" t="s">
         <v>14</v>
@@ -27991,16 +27991,16 @@
         <v>2232</v>
       </c>
       <c r="B727" s="6" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="C727" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="D727" s="11" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="E727" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="F727" t="s">
         <v>14</v>
@@ -28020,16 +28020,16 @@
         <v>2232</v>
       </c>
       <c r="B728" s="6" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="C728" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="D728" s="11" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="E728" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="F728" t="s">
         <v>14</v>
@@ -28049,13 +28049,16 @@
         <v>2232</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>2344</v>
+        <v>2340</v>
+      </c>
+      <c r="C729" t="s">
+        <v>2341</v>
       </c>
       <c r="D729" s="11" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="E729" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="F729" t="s">
         <v>14</v>
@@ -28075,10 +28078,13 @@
         <v>2232</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>2347</v>
+        <v>2344</v>
+      </c>
+      <c r="D730" s="11" t="s">
+        <v>2345</v>
       </c>
       <c r="E730" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="F730" t="s">
         <v>14</v>
@@ -28098,13 +28104,10 @@
         <v>2232</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>2349</v>
-      </c>
-      <c r="C731" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="E731" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="F731" t="s">
         <v>14</v>
@@ -28124,16 +28127,13 @@
         <v>2232</v>
       </c>
       <c r="B732" s="6" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="C732" t="s">
-        <v>2353</v>
-      </c>
-      <c r="D732" s="11" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="E732" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="F732" t="s">
         <v>14</v>
@@ -28153,16 +28153,16 @@
         <v>2232</v>
       </c>
       <c r="B733" s="6" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="C733" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="D733" s="11" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E733" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="F733" t="s">
         <v>14</v>
@@ -28182,16 +28182,16 @@
         <v>2232</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="C734" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="D734" s="11" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="E734" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="F734" t="s">
         <v>14</v>
@@ -28211,16 +28211,16 @@
         <v>2232</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="C735" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="D735" s="11" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="E735" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="F735" t="s">
         <v>14</v>
@@ -28240,16 +28240,16 @@
         <v>2232</v>
       </c>
       <c r="B736" s="6" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="C736" t="s">
-        <v>786</v>
+        <v>2365</v>
       </c>
       <c r="D736" s="11" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="E736" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="F736" t="s">
         <v>14</v>
@@ -28269,16 +28269,16 @@
         <v>2232</v>
       </c>
       <c r="B737" s="6" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="C737" t="s">
-        <v>2372</v>
+        <v>786</v>
       </c>
       <c r="D737" s="11" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="E737" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="F737" t="s">
         <v>14</v>
@@ -28298,16 +28298,16 @@
         <v>2232</v>
       </c>
       <c r="B738" s="6" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C738" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="D738" s="11" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="E738" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="F738" t="s">
         <v>14</v>
@@ -28327,16 +28327,16 @@
         <v>2232</v>
       </c>
       <c r="B739" s="6" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="C739" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="D739" s="11" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="E739" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="F739" t="s">
         <v>14</v>
@@ -28356,16 +28356,16 @@
         <v>2232</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="C740" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="D740" s="11" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="E740" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="F740" t="s">
         <v>14</v>
@@ -28385,16 +28385,16 @@
         <v>2232</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="C741" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="D741" s="11" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="E741" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="F741" t="s">
         <v>14</v>
@@ -28414,16 +28414,16 @@
         <v>2232</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="C742" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="D742" s="11" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="E742" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="F742" t="s">
         <v>14</v>
@@ -28443,13 +28443,16 @@
         <v>2232</v>
       </c>
       <c r="B743" s="6" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C743" t="s">
-        <v>2396</v>
+        <v>2392</v>
+      </c>
+      <c r="D743" s="11" t="s">
+        <v>2393</v>
       </c>
       <c r="E743" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="F743" t="s">
         <v>14</v>
@@ -28469,16 +28472,13 @@
         <v>2232</v>
       </c>
       <c r="B744" s="6" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="C744" t="s">
-        <v>2399</v>
-      </c>
-      <c r="D744" s="11" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="E744" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="F744" t="s">
         <v>14</v>
@@ -28498,16 +28498,16 @@
         <v>2232</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="C745" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="D745" s="11" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="E745" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="F745" t="s">
         <v>14</v>
@@ -28527,16 +28527,16 @@
         <v>2232</v>
       </c>
       <c r="B746" s="6" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="C746" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="D746" s="11" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="E746" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="F746" t="s">
         <v>14</v>
@@ -28556,13 +28556,16 @@
         <v>2232</v>
       </c>
       <c r="B747" s="6" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="C747" t="s">
-        <v>2411</v>
+        <v>2407</v>
+      </c>
+      <c r="D747" s="11" t="s">
+        <v>2408</v>
       </c>
       <c r="E747" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="F747" t="s">
         <v>14</v>
@@ -28582,16 +28585,13 @@
         <v>2232</v>
       </c>
       <c r="B748" s="6" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="C748" t="s">
-        <v>2414</v>
-      </c>
-      <c r="D748" s="11" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="E748" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="F748" t="s">
         <v>14</v>
@@ -28611,16 +28611,16 @@
         <v>2232</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="C749" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="D749" s="11" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="E749" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="F749" t="s">
         <v>14</v>
@@ -28640,16 +28640,16 @@
         <v>2232</v>
       </c>
       <c r="B750" s="6" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="C750" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="D750" s="11" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="E750" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="F750" t="s">
         <v>14</v>
@@ -28669,13 +28669,16 @@
         <v>2232</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="C751" t="s">
-        <v>2424</v>
+        <v>2421</v>
+      </c>
+      <c r="D751" s="11" t="s">
+        <v>2422</v>
       </c>
       <c r="E751" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="F751" t="s">
         <v>14</v>
@@ -28695,16 +28698,13 @@
         <v>2232</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C752" t="s">
-        <v>2427</v>
-      </c>
-      <c r="D752" s="11" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="E752" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="F752" t="s">
         <v>14</v>
@@ -28724,16 +28724,16 @@
         <v>2232</v>
       </c>
       <c r="B753" s="6" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="C753" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="D753" s="11" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="E753" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="F753" t="s">
         <v>14</v>
@@ -28753,16 +28753,16 @@
         <v>2232</v>
       </c>
       <c r="B754" s="6" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="C754" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="D754" s="11" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="E754" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="F754" t="s">
         <v>14</v>
@@ -28782,13 +28782,16 @@
         <v>2232</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>2438</v>
+        <v>2434</v>
+      </c>
+      <c r="C755" t="s">
+        <v>2435</v>
       </c>
       <c r="D755" s="11" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="E755" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="F755" t="s">
         <v>14</v>
@@ -28808,16 +28811,13 @@
         <v>2232</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>2441</v>
-      </c>
-      <c r="C756" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="D756" s="11" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="E756" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="F756" t="s">
         <v>14</v>
@@ -28837,16 +28837,16 @@
         <v>2232</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="C757" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="D757" s="11" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="E757" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="F757" t="s">
         <v>14</v>
@@ -28866,16 +28866,16 @@
         <v>2232</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="C758" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="D758" s="11" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="E758" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="F758" t="s">
         <v>14</v>
@@ -28895,16 +28895,16 @@
         <v>2232</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="C759" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="D759" s="11" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="E759" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="F759" t="s">
         <v>14</v>
@@ -28924,16 +28924,16 @@
         <v>2232</v>
       </c>
       <c r="B760" s="6" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="C760" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="D760" s="11" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="E760" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="F760" t="s">
         <v>14</v>
@@ -28953,16 +28953,16 @@
         <v>2232</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="C761" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="D761" s="11" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="E761" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="F761" t="s">
         <v>14</v>
@@ -28982,13 +28982,16 @@
         <v>2232</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>2465</v>
+        <v>2461</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2462</v>
       </c>
       <c r="D762" s="11" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="E762" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="F762" t="s">
         <v>14</v>
@@ -29008,16 +29011,13 @@
         <v>2232</v>
       </c>
       <c r="B763" s="6" t="s">
-        <v>2468</v>
-      </c>
-      <c r="C763" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="D763" s="11" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="E763" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="F763" t="s">
         <v>14</v>
@@ -29037,10 +29037,16 @@
         <v>2232</v>
       </c>
       <c r="B764" s="6" t="s">
-        <v>2472</v>
+        <v>2468</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D764" s="11" t="s">
+        <v>2470</v>
       </c>
       <c r="E764" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="F764" t="s">
         <v>14</v>
@@ -29060,13 +29066,10 @@
         <v>2232</v>
       </c>
       <c r="B765" s="6" t="s">
-        <v>2474</v>
-      </c>
-      <c r="D765" s="11" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="E765" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="F765" t="s">
         <v>14</v>
@@ -29086,13 +29089,13 @@
         <v>2232</v>
       </c>
       <c r="B766" s="6" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D766" s="11" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="E766" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="F766" t="s">
         <v>14</v>
@@ -29112,13 +29115,13 @@
         <v>2232</v>
       </c>
       <c r="B767" s="6" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="D767" s="11" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="E767" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="F767" t="s">
         <v>14</v>
@@ -29138,10 +29141,13 @@
         <v>2232</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>2483</v>
+        <v>2480</v>
+      </c>
+      <c r="D768" s="11" t="s">
+        <v>2481</v>
       </c>
       <c r="E768" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="F768" t="s">
         <v>14</v>
@@ -29161,13 +29167,10 @@
         <v>2232</v>
       </c>
       <c r="B769" s="6" t="s">
-        <v>2485</v>
-      </c>
-      <c r="D769" s="11" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="E769" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="F769" t="s">
         <v>14</v>
@@ -29187,10 +29190,13 @@
         <v>2232</v>
       </c>
       <c r="B770" s="6" t="s">
-        <v>2488</v>
+        <v>2485</v>
+      </c>
+      <c r="D770" s="11" t="s">
+        <v>2486</v>
       </c>
       <c r="E770" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="F770" t="s">
         <v>14</v>
@@ -29210,13 +29216,10 @@
         <v>2232</v>
       </c>
       <c r="B771" s="6" t="s">
-        <v>2490</v>
-      </c>
-      <c r="C771" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="E771" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="F771" t="s">
         <v>14</v>
@@ -29236,13 +29239,13 @@
         <v>2232</v>
       </c>
       <c r="B772" s="6" t="s">
-        <v>2493</v>
-      </c>
-      <c r="D772" s="11" t="s">
-        <v>2494</v>
+        <v>2490</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2491</v>
       </c>
       <c r="E772" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="F772" t="s">
         <v>14</v>
@@ -29262,13 +29265,13 @@
         <v>2232</v>
       </c>
       <c r="B773" s="6" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="D773" s="11" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="E773" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="F773" t="s">
         <v>14</v>
@@ -29288,13 +29291,13 @@
         <v>2232</v>
       </c>
       <c r="B774" s="6" t="s">
-        <v>2499</v>
-      </c>
-      <c r="C774" t="s">
-        <v>2500</v>
+        <v>2496</v>
+      </c>
+      <c r="D774" s="11" t="s">
+        <v>2497</v>
       </c>
       <c r="E774" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="F774" t="s">
         <v>14</v>
@@ -29314,16 +29317,13 @@
         <v>2232</v>
       </c>
       <c r="B775" s="6" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="C775" t="s">
-        <v>2503</v>
-      </c>
-      <c r="D775" s="11" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="E775" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="F775" t="s">
         <v>14</v>
@@ -29343,16 +29343,16 @@
         <v>2232</v>
       </c>
       <c r="B776" s="6" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="C776" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="D776" s="11" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="E776" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="F776" t="s">
         <v>14</v>
@@ -29372,16 +29372,16 @@
         <v>2232</v>
       </c>
       <c r="B777" s="6" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="C777" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="D777" s="11" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="E777" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="F777" t="s">
         <v>14</v>
@@ -29401,13 +29401,16 @@
         <v>2232</v>
       </c>
       <c r="B778" s="6" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="C778" t="s">
-        <v>2515</v>
+        <v>2511</v>
+      </c>
+      <c r="D778" s="11" t="s">
+        <v>2512</v>
       </c>
       <c r="E778" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="F778" t="s">
         <v>14</v>
@@ -29427,16 +29430,13 @@
         <v>2232</v>
       </c>
       <c r="B779" s="6" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="C779" t="s">
-        <v>2518</v>
-      </c>
-      <c r="D779" s="11" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="E779" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="F779" t="s">
         <v>14</v>
@@ -29456,13 +29456,16 @@
         <v>2232</v>
       </c>
       <c r="B780" s="6" t="s">
-        <v>2521</v>
+        <v>2517</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2518</v>
       </c>
       <c r="D780" s="11" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E780" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="F780" t="s">
         <v>14</v>
@@ -29482,13 +29485,13 @@
         <v>2232</v>
       </c>
       <c r="B781" s="6" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="D781" s="11" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E781" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="F781" t="s">
         <v>14</v>
@@ -29508,13 +29511,13 @@
         <v>2232</v>
       </c>
       <c r="B782" s="6" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="D782" s="11" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="E782" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="F782" t="s">
         <v>14</v>
@@ -29534,13 +29537,13 @@
         <v>2232</v>
       </c>
       <c r="B783" s="6" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="D783" s="11" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E783" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="F783" t="s">
         <v>14</v>
@@ -29560,13 +29563,13 @@
         <v>2232</v>
       </c>
       <c r="B784" s="6" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="D784" s="11" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="E784" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="F784" t="s">
         <v>14</v>
@@ -29586,13 +29589,13 @@
         <v>2232</v>
       </c>
       <c r="B785" s="6" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="D785" s="11" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E785" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="F785" t="s">
         <v>14</v>
@@ -29612,16 +29615,13 @@
         <v>2232</v>
       </c>
       <c r="B786" s="6" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C786" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="D786" s="11" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="E786" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="F786" t="s">
         <v>14</v>
@@ -29641,13 +29641,16 @@
         <v>2232</v>
       </c>
       <c r="B787" s="6" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="C787" t="s">
-        <v>2544</v>
+        <v>2540</v>
+      </c>
+      <c r="D787" s="11" t="s">
+        <v>2541</v>
       </c>
       <c r="E787" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="F787" t="s">
         <v>14</v>
@@ -29667,16 +29670,13 @@
         <v>2232</v>
       </c>
       <c r="B788" s="6" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="C788" t="s">
-        <v>2547</v>
-      </c>
-      <c r="D788" s="11" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="E788" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="F788" t="s">
         <v>14</v>
@@ -29696,16 +29696,16 @@
         <v>2232</v>
       </c>
       <c r="B789" s="6" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="C789" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="D789" s="11" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="E789" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="F789" t="s">
         <v>14</v>
@@ -29725,16 +29725,16 @@
         <v>2232</v>
       </c>
       <c r="B790" s="6" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="C790" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="D790" s="11" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="E790" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="F790" t="s">
         <v>14</v>
@@ -29754,16 +29754,16 @@
         <v>2232</v>
       </c>
       <c r="B791" s="6" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="C791" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="D791" s="11" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="E791" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="F791" t="s">
         <v>14</v>
@@ -29783,13 +29783,16 @@
         <v>2232</v>
       </c>
       <c r="B792" s="6" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="C792" t="s">
-        <v>2563</v>
+        <v>2559</v>
+      </c>
+      <c r="D792" s="11" t="s">
+        <v>2560</v>
       </c>
       <c r="E792" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="F792" t="s">
         <v>14</v>
@@ -29809,16 +29812,13 @@
         <v>2232</v>
       </c>
       <c r="B793" s="6" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="C793" t="s">
-        <v>2566</v>
-      </c>
-      <c r="D793" s="11" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="E793" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="F793" t="s">
         <v>14</v>
@@ -29838,13 +29838,16 @@
         <v>2232</v>
       </c>
       <c r="B794" s="6" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="C794" t="s">
-        <v>2570</v>
+        <v>2566</v>
+      </c>
+      <c r="D794" s="11" t="s">
+        <v>2567</v>
       </c>
       <c r="E794" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="F794" t="s">
         <v>14</v>
@@ -29864,13 +29867,13 @@
         <v>2232</v>
       </c>
       <c r="B795" s="6" t="s">
-        <v>2572</v>
-      </c>
-      <c r="D795" s="11" t="s">
-        <v>2573</v>
+        <v>2569</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2570</v>
       </c>
       <c r="E795" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="F795" t="s">
         <v>14</v>
@@ -29890,16 +29893,13 @@
         <v>2232</v>
       </c>
       <c r="B796" s="6" t="s">
-        <v>2575</v>
-      </c>
-      <c r="C796" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="D796" s="11" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="E796" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="F796" t="s">
         <v>14</v>
@@ -29919,13 +29919,16 @@
         <v>2232</v>
       </c>
       <c r="B797" s="6" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="C797" t="s">
-        <v>2579</v>
+        <v>2576</v>
+      </c>
+      <c r="D797" s="11" t="s">
+        <v>2577</v>
       </c>
       <c r="E797" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="F797" t="s">
         <v>14</v>
@@ -29945,16 +29948,13 @@
         <v>2232</v>
       </c>
       <c r="B798" s="6" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="C798" t="s">
-        <v>2582</v>
-      </c>
-      <c r="D798" s="11" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="E798" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="F798" t="s">
         <v>14</v>
@@ -29974,13 +29974,16 @@
         <v>2232</v>
       </c>
       <c r="B799" s="6" t="s">
-        <v>2584</v>
+        <v>2581</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2582</v>
       </c>
       <c r="D799" s="11" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="E799" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="F799" t="s">
         <v>14</v>
@@ -30000,13 +30003,13 @@
         <v>2232</v>
       </c>
       <c r="B800" s="6" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="D800" s="11" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="E800" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="F800" t="s">
         <v>14</v>
@@ -30026,16 +30029,13 @@
         <v>2232</v>
       </c>
       <c r="B801" s="6" t="s">
-        <v>2590</v>
-      </c>
-      <c r="C801" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="D801" s="11" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="E801" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="F801" t="s">
         <v>14</v>
@@ -30055,13 +30055,16 @@
         <v>2232</v>
       </c>
       <c r="B802" s="6" t="s">
-        <v>2594</v>
+        <v>2590</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2591</v>
       </c>
       <c r="D802" s="11" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="E802" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="F802" t="s">
         <v>14</v>
@@ -30081,16 +30084,13 @@
         <v>2232</v>
       </c>
       <c r="B803" s="6" t="s">
-        <v>2597</v>
-      </c>
-      <c r="C803" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="D803" s="11" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="E803" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="F803" t="s">
         <v>14</v>
@@ -30110,16 +30110,16 @@
         <v>2232</v>
       </c>
       <c r="B804" s="6" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="C804" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="D804" s="11" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="E804" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="F804" t="s">
         <v>14</v>
@@ -30139,16 +30139,16 @@
         <v>2232</v>
       </c>
       <c r="B805" s="6" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="C805" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="D805" s="11" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="E805" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="F805" t="s">
         <v>14</v>
@@ -30168,13 +30168,16 @@
         <v>2232</v>
       </c>
       <c r="B806" s="6" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="C806" t="s">
-        <v>2610</v>
+        <v>2606</v>
+      </c>
+      <c r="D806" s="11" t="s">
+        <v>2607</v>
       </c>
       <c r="E806" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="F806" t="s">
         <v>14</v>
@@ -30194,16 +30197,13 @@
         <v>2232</v>
       </c>
       <c r="B807" s="6" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="C807" t="s">
-        <v>2613</v>
-      </c>
-      <c r="D807" s="11" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="E807" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="F807" t="s">
         <v>14</v>
@@ -30223,13 +30223,16 @@
         <v>2232</v>
       </c>
       <c r="B808" s="6" t="s">
-        <v>2615</v>
+        <v>2612</v>
+      </c>
+      <c r="C808" t="s">
+        <v>2613</v>
       </c>
       <c r="D808" s="11" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="E808" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="F808" t="s">
         <v>14</v>
@@ -30249,13 +30252,13 @@
         <v>2232</v>
       </c>
       <c r="B809" s="6" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C809" t="s">
-        <v>2619</v>
+        <v>2615</v>
+      </c>
+      <c r="D809" s="11" t="s">
+        <v>2616</v>
       </c>
       <c r="E809" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="F809" t="s">
         <v>14</v>
@@ -30275,13 +30278,13 @@
         <v>2232</v>
       </c>
       <c r="B810" s="6" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="C810" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="E810" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="F810" t="s">
         <v>14</v>
@@ -30301,35 +30304,61 @@
         <v>2232</v>
       </c>
       <c r="B811" s="6" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C811" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E811" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F811" t="s">
+        <v>14</v>
+      </c>
+      <c r="G811" t="b">
+        <v>1</v>
+      </c>
+      <c r="H811" t="b">
+        <v>0</v>
+      </c>
+      <c r="I811" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B812" s="6" t="s">
         <v>2624</v>
       </c>
-      <c r="C811" t="s">
+      <c r="C812" t="s">
         <v>2625</v>
       </c>
-      <c r="D811" s="11" t="s">
+      <c r="D812" s="11" t="s">
         <v>2626</v>
       </c>
-      <c r="E811" t="s">
+      <c r="E812" t="s">
         <v>2627</v>
       </c>
-      <c r="F811" t="s">
-        <v>14</v>
-      </c>
-      <c r="G811" t="b">
-        <v>1</v>
-      </c>
-      <c r="H811" t="b">
-        <v>0</v>
-      </c>
-      <c r="I811" t="b">
+      <c r="F812" t="s">
+        <v>14</v>
+      </c>
+      <c r="G812" t="b">
+        <v>1</v>
+      </c>
+      <c r="H812" t="b">
+        <v>0</v>
+      </c>
+      <c r="I812" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I811" xr:uid="{4657623A-36D5-0B49-91B8-725C7746E161}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I813">
-    <sortCondition ref="A2:A813"/>
-    <sortCondition ref="B2:B813"/>
+  <autoFilter ref="A1:I812" xr:uid="{4657623A-36D5-0B49-91B8-725C7746E161}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I814">
+    <sortCondition ref="A2:A814"/>
+    <sortCondition ref="B2:B814"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/journal_list_author_tool.xlsx
+++ b/src/data/journal_list_author_tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agb/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annegentil-beccot/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA360F89-BACD-8844-98A0-853737C50711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548B1B1-AB17-1F4C-86A9-B9A365510CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10189,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B447" sqref="B447"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G855" sqref="G855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34540,7 +34540,7 @@
         <v>15</v>
       </c>
       <c r="G814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H814" t="b">
         <v>0</v>
@@ -34569,7 +34569,7 @@
         <v>15</v>
       </c>
       <c r="G815" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H815" t="b">
         <v>0</v>
@@ -34598,7 +34598,7 @@
         <v>15</v>
       </c>
       <c r="G816" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H816" t="b">
         <v>0</v>
@@ -34627,7 +34627,7 @@
         <v>15</v>
       </c>
       <c r="G817" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H817" t="b">
         <v>0</v>
@@ -34656,7 +34656,7 @@
         <v>15</v>
       </c>
       <c r="G818" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H818" t="b">
         <v>0</v>
@@ -34685,7 +34685,7 @@
         <v>15</v>
       </c>
       <c r="G819" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H819" t="b">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>15</v>
       </c>
       <c r="G820" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H820" t="b">
         <v>0</v>
@@ -34743,7 +34743,7 @@
         <v>15</v>
       </c>
       <c r="G821" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H821" t="b">
         <v>0</v>
@@ -34772,7 +34772,7 @@
         <v>15</v>
       </c>
       <c r="G822" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H822" t="b">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>15</v>
       </c>
       <c r="G823" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H823" t="b">
         <v>0</v>
@@ -34827,7 +34827,7 @@
         <v>15</v>
       </c>
       <c r="G824" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H824" t="b">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>15</v>
       </c>
       <c r="G825" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H825" t="b">
         <v>0</v>
@@ -34885,7 +34885,7 @@
         <v>15</v>
       </c>
       <c r="G826" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H826" t="b">
         <v>0</v>
@@ -34914,7 +34914,7 @@
         <v>15</v>
       </c>
       <c r="G827" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H827" t="b">
         <v>0</v>
@@ -34943,7 +34943,7 @@
         <v>15</v>
       </c>
       <c r="G828" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H828" t="b">
         <v>0</v>
@@ -34972,7 +34972,7 @@
         <v>15</v>
       </c>
       <c r="G829" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H829" t="b">
         <v>0</v>
@@ -35001,7 +35001,7 @@
         <v>15</v>
       </c>
       <c r="G830" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H830" t="b">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>15</v>
       </c>
       <c r="G831" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H831" t="b">
         <v>0</v>
@@ -35065,7 +35065,7 @@
         <v>15</v>
       </c>
       <c r="G832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H832" t="b">
         <v>0</v>
@@ -35129,7 +35129,7 @@
         <v>15</v>
       </c>
       <c r="G834" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H834" t="b">
         <v>0</v>
@@ -35161,7 +35161,7 @@
         <v>15</v>
       </c>
       <c r="G835" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H835" t="b">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>15</v>
       </c>
       <c r="G836" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H836" t="b">
         <v>0</v>
@@ -35225,7 +35225,7 @@
         <v>15</v>
       </c>
       <c r="G837" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H837" t="b">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>15</v>
       </c>
       <c r="G838" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H838" t="b">
         <v>0</v>
@@ -35286,7 +35286,7 @@
         <v>15</v>
       </c>
       <c r="G839" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H839" t="b">
         <v>0</v>
@@ -35315,7 +35315,7 @@
         <v>15</v>
       </c>
       <c r="G840" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H840" t="b">
         <v>0</v>
@@ -35344,7 +35344,7 @@
         <v>15</v>
       </c>
       <c r="G841" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H841" t="b">
         <v>0</v>
@@ -35373,7 +35373,7 @@
         <v>15</v>
       </c>
       <c r="G842" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H842" t="b">
         <v>0</v>
@@ -35402,7 +35402,7 @@
         <v>15</v>
       </c>
       <c r="G843" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H843" t="b">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>15</v>
       </c>
       <c r="G844" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H844" t="b">
         <v>0</v>
@@ -35460,7 +35460,7 @@
         <v>15</v>
       </c>
       <c r="G845" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H845" t="b">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>15</v>
       </c>
       <c r="G846" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H846" t="b">
         <v>0</v>
@@ -35518,7 +35518,7 @@
         <v>15</v>
       </c>
       <c r="G847" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H847" t="b">
         <v>0</v>
@@ -35547,7 +35547,7 @@
         <v>15</v>
       </c>
       <c r="G848" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H848" t="b">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>15</v>
       </c>
       <c r="G849" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H849" t="b">
         <v>0</v>
@@ -35605,7 +35605,7 @@
         <v>15</v>
       </c>
       <c r="G850" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H850" t="b">
         <v>0</v>
@@ -35634,7 +35634,7 @@
         <v>15</v>
       </c>
       <c r="G851" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H851" t="b">
         <v>0</v>
@@ -35663,7 +35663,7 @@
         <v>15</v>
       </c>
       <c r="G852" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H852" t="b">
         <v>0</v>
@@ -35692,7 +35692,7 @@
         <v>15</v>
       </c>
       <c r="G853" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H853" t="b">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>15</v>
       </c>
       <c r="G855" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H855" t="b">
         <v>0</v>
@@ -35782,7 +35782,7 @@
         <v>15</v>
       </c>
       <c r="G856" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H856" t="b">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>15</v>
       </c>
       <c r="G857" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H857" t="b">
         <v>0</v>
@@ -35840,7 +35840,7 @@
         <v>15</v>
       </c>
       <c r="G858" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H858" t="b">
         <v>0</v>
@@ -35869,7 +35869,7 @@
         <v>15</v>
       </c>
       <c r="G859" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H859" t="b">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>15</v>
       </c>
       <c r="G860" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H860" t="b">
         <v>0</v>
@@ -35927,7 +35927,7 @@
         <v>15</v>
       </c>
       <c r="G861" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H861" t="b">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>15</v>
       </c>
       <c r="G862" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H862" t="b">
         <v>0</v>
@@ -35985,7 +35985,7 @@
         <v>15</v>
       </c>
       <c r="G863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H863" t="b">
         <v>0</v>
@@ -36014,7 +36014,7 @@
         <v>15</v>
       </c>
       <c r="G864" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H864" t="b">
         <v>0</v>
@@ -36043,7 +36043,7 @@
         <v>15</v>
       </c>
       <c r="G865" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H865" t="b">
         <v>0</v>
@@ -36072,7 +36072,7 @@
         <v>15</v>
       </c>
       <c r="G866" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H866" t="b">
         <v>0</v>
@@ -36101,7 +36101,7 @@
         <v>15</v>
       </c>
       <c r="G867" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H867" t="b">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>15</v>
       </c>
       <c r="G868" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H868" t="b">
         <v>0</v>
@@ -36295,7 +36295,7 @@
         <v>15</v>
       </c>
       <c r="G874" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H874" t="b">
         <v>0</v>
@@ -36324,7 +36324,7 @@
         <v>15</v>
       </c>
       <c r="G875" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H875" t="b">
         <v>0</v>
@@ -36353,7 +36353,7 @@
         <v>15</v>
       </c>
       <c r="G876" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H876" t="b">
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>15</v>
       </c>
       <c r="G877" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H877" t="b">
         <v>0</v>
@@ -36411,7 +36411,7 @@
         <v>15</v>
       </c>
       <c r="G878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H878" t="b">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>15</v>
       </c>
       <c r="G879" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H879" t="b">
         <v>0</v>
@@ -36469,7 +36469,7 @@
         <v>15</v>
       </c>
       <c r="G880" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H880" t="b">
         <v>0</v>
@@ -36498,7 +36498,7 @@
         <v>15</v>
       </c>
       <c r="G881" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H881" t="b">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>15</v>
       </c>
       <c r="G882" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H882" t="b">
         <v>0</v>
@@ -36556,7 +36556,7 @@
         <v>15</v>
       </c>
       <c r="G883" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H883" t="b">
         <v>0</v>
@@ -36585,7 +36585,7 @@
         <v>15</v>
       </c>
       <c r="G884" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H884" t="b">
         <v>0</v>
@@ -36614,7 +36614,7 @@
         <v>15</v>
       </c>
       <c r="G885" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H885" t="b">
         <v>0</v>
@@ -36643,7 +36643,7 @@
         <v>15</v>
       </c>
       <c r="G886" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H886" t="b">
         <v>0</v>
